--- a/server/utils/Files/ContactUs.xlsx
+++ b/server/utils/Files/ContactUs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -482,9 +482,53 @@
         <v>Hi, I am Vaibhav!</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Vaibhav Samdani</v>
+      </c>
+      <c r="B8" t="str">
+        <v>vaibhavsamdani.cse27@jecrc.ac.in</v>
+      </c>
+      <c r="C8" t="str">
+        <v>I am vaibhav from jecrc. 23EJCCS833</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Vaibhav</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Vaibhavsamdani@hi2.in</v>
+      </c>
+      <c r="C9" t="str">
+        <v>hi</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Vaibhav Samdani</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Vaibhavsamdani@wwpager.me</v>
+      </c>
+      <c r="C10" t="str">
+        <v>asdf</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Vaibhav</v>
+      </c>
+      <c r="B11" t="str">
+        <v>v@g.c</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ad</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>